--- a/TapBand_SRC/Assets/Data/GameData.xlsx
+++ b/TapBand_SRC/Assets/Data/GameData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>TapMultiplier</t>
-  </si>
-  <si>
-    <t>FanRequirementToSkip</t>
   </si>
   <si>
     <t>EquipmentType</t>
@@ -665,9 +662,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="6" max="6" width="21.29"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -685,9 +679,7 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -725,9 +717,6 @@
       <c r="E2" s="3">
         <v>1.5</v>
       </c>
-      <c r="F2" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -744,9 +733,6 @@
       </c>
       <c r="E3" s="3">
         <v>1.6</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10000.0</v>
       </c>
     </row>
     <row r="4">
@@ -765,9 +751,6 @@
       <c r="E4" s="3">
         <v>1.7</v>
       </c>
-      <c r="F4" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -785,9 +768,6 @@
       <c r="E5" s="3">
         <v>1.8</v>
       </c>
-      <c r="F5" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -805,9 +785,6 @@
       <c r="E6" s="3">
         <v>1.9</v>
       </c>
-      <c r="F6" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -825,9 +802,6 @@
       <c r="E7" s="3">
         <v>2.0</v>
       </c>
-      <c r="F7" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
@@ -845,9 +819,6 @@
       <c r="E8" s="3">
         <v>2.1</v>
       </c>
-      <c r="F8" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
@@ -865,9 +836,6 @@
       <c r="E9" s="3">
         <v>2.2</v>
       </c>
-      <c r="F9" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
@@ -885,9 +853,6 @@
       <c r="E10" s="3">
         <v>2.3</v>
       </c>
-      <c r="F10" s="3">
-        <v>10000.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
@@ -904,9 +869,6 @@
       </c>
       <c r="E11" s="3">
         <v>2.4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10000.0</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -938,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -969,13 +931,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>100.0</v>
@@ -989,13 +951,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>2.0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3">
         <v>150.0</v>
@@ -1009,13 +971,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="3">
         <v>80.0</v>
@@ -1029,13 +991,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>120.0</v>
@@ -1049,13 +1011,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="3">
         <v>50.0</v>
@@ -1069,13 +1031,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>2.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3">
         <v>90.0</v>
@@ -1089,13 +1051,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>150.0</v>
@@ -1109,13 +1071,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>2.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3">
         <v>200.0</v>
@@ -1155,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -1195,7 +1157,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3">
         <v>1.0</v>
@@ -1215,7 +1177,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
         <v>2.0</v>
@@ -1235,7 +1197,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -1255,7 +1217,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
@@ -1275,7 +1237,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>1.0</v>
@@ -1295,7 +1257,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3">
         <v>2.0</v>
@@ -1315,7 +1277,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3">
         <v>1.0</v>
@@ -1335,7 +1297,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>2.0</v>
@@ -1378,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1409,7 +1371,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>1524.0</v>
@@ -1420,7 +1382,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3">
         <v>2048.0</v>
@@ -1431,14 +1393,11 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
